--- a/template/template.xlsx
+++ b/template/template.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\felix\Dev\xlwings-factsheet\template\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\felix\Dev\xlwings-factsheet-demo\template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD62C2B4-1326-4FED-BC0C-4E6642DD955F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FB0CE31-137C-4D7C-940F-B8E046856BB9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="27076" windowHeight="16395" xr2:uid="{BCC6040F-ED20-4B42-8027-EC723C4561ED}"/>
+    <workbookView xWindow="-103" yWindow="-103" windowWidth="30926" windowHeight="18806" xr2:uid="{BCC6040F-ED20-4B42-8027-EC723C4561ED}"/>
   </bookViews>
   <sheets>
     <sheet name="Page1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
     <definedName name="_xlnm.Print_Area" localSheetId="1">Page2!$A$1:$M$53</definedName>
     <definedName name="produce_pdfs">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="191029" concurrentCalc="0"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -3173,36 +3173,38 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3CC110F-215A-4430-B271-153EDB4C136B}">
-  <sheetPr codeName="Sheet1"/>
+  <sheetPr codeName="Sheet1">
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
   <dimension ref="A1:L35"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="70" zoomScaleNormal="85" zoomScaleSheetLayoutView="70" zoomScalePageLayoutView="55" workbookViewId="0">
       <selection activeCell="G26" sqref="G26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.4" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="9.07421875" defaultRowHeight="15.45" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="3.59765625" style="6" customWidth="1"/>
-    <col min="2" max="5" width="9.06640625" style="6"/>
-    <col min="6" max="6" width="7.33203125" style="6" customWidth="1"/>
-    <col min="7" max="7" width="9.06640625" style="6" customWidth="1"/>
-    <col min="8" max="12" width="9.06640625" style="6"/>
-    <col min="13" max="13" width="3.59765625" style="6" customWidth="1"/>
-    <col min="14" max="16384" width="9.06640625" style="6"/>
+    <col min="1" max="1" width="3.61328125" style="6" customWidth="1"/>
+    <col min="2" max="5" width="9.07421875" style="6"/>
+    <col min="6" max="6" width="7.3046875" style="6" customWidth="1"/>
+    <col min="7" max="7" width="9.07421875" style="6" customWidth="1"/>
+    <col min="8" max="12" width="9.07421875" style="6"/>
+    <col min="13" max="13" width="3.61328125" style="6" customWidth="1"/>
+    <col min="14" max="16384" width="9.07421875" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.45"/>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.4"/>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.4">
       <c r="G8" s="8" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="24" spans="7:12" x14ac:dyDescent="0.45">
+    <row r="24" spans="7:12" x14ac:dyDescent="0.4">
       <c r="G24" s="8" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="25" spans="7:12" x14ac:dyDescent="0.45">
+    <row r="25" spans="7:12" x14ac:dyDescent="0.4">
       <c r="G25" s="9" t="s">
         <v>1</v>
       </c>
@@ -3214,7 +3216,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="26" spans="7:12" x14ac:dyDescent="0.45">
+    <row r="26" spans="7:12" x14ac:dyDescent="0.4">
       <c r="G26" s="6" t="s">
         <v>12</v>
       </c>
@@ -3224,12 +3226,12 @@
       <c r="K26" s="7"/>
       <c r="L26" s="11"/>
     </row>
-    <row r="28" spans="7:12" x14ac:dyDescent="0.45">
+    <row r="28" spans="7:12" x14ac:dyDescent="0.4">
       <c r="G28" s="8" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="35" spans="8:12" x14ac:dyDescent="0.45">
+    <row r="35" spans="8:12" x14ac:dyDescent="0.4">
       <c r="H35" s="8"/>
       <c r="I35" s="8"/>
       <c r="J35" s="8"/>
@@ -3240,7 +3242,7 @@
   <phoneticPr fontId="4" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
-  <pageSetup paperSize="9" fitToWidth="0" fitToHeight="0" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="99" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
   <legacyDrawing r:id="rId3"/>
   <tableParts count="1">
@@ -3251,29 +3253,31 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9CD012C3-361A-4AAA-94AC-3FE78DD93D5C}">
-  <sheetPr codeName="Sheet2"/>
+  <sheetPr codeName="Sheet2">
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
   <dimension ref="B8:L47"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScale="70" zoomScaleNormal="73" zoomScaleSheetLayoutView="70" zoomScalePageLayoutView="55" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.4" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="9.07421875" defaultRowHeight="15.45" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="3.59765625" style="6" customWidth="1"/>
-    <col min="2" max="5" width="9.06640625" style="6"/>
-    <col min="6" max="6" width="7.33203125" style="6" customWidth="1"/>
-    <col min="7" max="7" width="9.06640625" style="6" customWidth="1"/>
-    <col min="8" max="12" width="9.06640625" style="6"/>
-    <col min="13" max="13" width="3.59765625" style="6" customWidth="1"/>
-    <col min="14" max="16384" width="9.06640625" style="6"/>
+    <col min="1" max="1" width="3.61328125" style="6" customWidth="1"/>
+    <col min="2" max="5" width="9.07421875" style="6"/>
+    <col min="6" max="6" width="7.3046875" style="6" customWidth="1"/>
+    <col min="7" max="7" width="9.07421875" style="6" customWidth="1"/>
+    <col min="8" max="12" width="9.07421875" style="6"/>
+    <col min="13" max="13" width="3.61328125" style="6" customWidth="1"/>
+    <col min="14" max="16384" width="9.07421875" style="6"/>
   </cols>
   <sheetData>
-    <row r="8" spans="7:7" x14ac:dyDescent="0.45">
+    <row r="8" spans="7:7" x14ac:dyDescent="0.4">
       <c r="G8" s="8"/>
     </row>
-    <row r="24" spans="7:12" x14ac:dyDescent="0.45">
+    <row r="24" spans="7:12" x14ac:dyDescent="0.4">
       <c r="G24" s="8"/>
     </row>
-    <row r="25" spans="7:12" x14ac:dyDescent="0.45">
+    <row r="25" spans="7:12" x14ac:dyDescent="0.4">
       <c r="G25" s="13"/>
       <c r="H25" s="13"/>
       <c r="I25" s="13"/>
@@ -3281,21 +3285,21 @@
       <c r="K25" s="13"/>
       <c r="L25" s="14"/>
     </row>
-    <row r="26" spans="7:12" x14ac:dyDescent="0.45">
+    <row r="26" spans="7:12" x14ac:dyDescent="0.4">
       <c r="K26" s="7"/>
       <c r="L26" s="11"/>
     </row>
-    <row r="28" spans="7:12" x14ac:dyDescent="0.45">
+    <row r="28" spans="7:12" x14ac:dyDescent="0.4">
       <c r="G28" s="8"/>
     </row>
-    <row r="35" spans="2:12" x14ac:dyDescent="0.45">
+    <row r="35" spans="2:12" x14ac:dyDescent="0.4">
       <c r="H35" s="8"/>
       <c r="I35" s="8"/>
       <c r="J35" s="8"/>
       <c r="K35" s="8"/>
       <c r="L35" s="8"/>
     </row>
-    <row r="47" spans="2:12" x14ac:dyDescent="0.45">
+    <row r="47" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B47" s="6" t="s">
         <v>8</v>
       </c>
@@ -3303,7 +3307,7 @@
   </sheetData>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
-  <pageSetup paperSize="9" fitToWidth="0" fitToHeight="0" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="99" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>
@@ -3317,15 +3321,15 @@
       <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="15.06640625" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.1328125" customWidth="1"/>
-    <col min="5" max="5" width="52.73046875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.86328125" style="3" customWidth="1"/>
+    <col min="1" max="1" width="15.07421875" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.15234375" customWidth="1"/>
+    <col min="5" max="5" width="52.69140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.84375" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
@@ -3342,7 +3346,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A2" s="4">
         <v>43831</v>
       </c>
@@ -3359,7 +3363,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A3" s="4">
         <v>43832</v>
       </c>
@@ -3370,61 +3374,61 @@
         <v>100</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A4" s="4"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A5" s="4"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A6" s="4"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A7" s="4"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A8" s="4"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A9" s="4"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A10" s="4"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A11" s="4"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A12" s="4"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A13" s="4"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A14" s="4"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A15" s="4"/>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A16" s="4"/>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A17" s="4"/>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A18" s="4"/>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A19" s="4"/>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A20" s="4"/>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A21" s="4"/>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A22" s="4"/>
     </row>
   </sheetData>
